--- a/ExcelVoice/dados_turma.xlsx
+++ b/ExcelVoice/dados_turma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9757b855731a8f/Desktop/IM/IM_EXCEL_NODEPENDENCIES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae9757b855731a8f/Desktop/IM_EXCEL_Projects/ExcelVoice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_2B59D2BFD3505688D31310B05A3088B35299F2A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14EB3316-37C4-4424-A6C4-CA0A6DF54F47}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_2B59D2BFD3505688D31310B05A3088B35299F2A4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44870CCF-0953-4DFD-80C8-2963F7CA2E06}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,10 +139,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +429,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
